--- a/lib/tires_FAQs.xlsx
+++ b/lib/tires_FAQs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="1746">
   <si>
     <t xml:space="preserve">Что такое летние шины?</t>
   </si>
@@ -4436,6 +4436,828 @@
   </si>
   <si>
     <t xml:space="preserve">Как определить, что шины были повреждены в результате неправильного хранения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое посадочный диаметр шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диаметр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить правильный посадочный диаметр для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где находится информация о посадочном диаметре текущих шин на моем автомобиле?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли установить шины с другим посадочным диаметром, чем указано в руководстве по эксплуатации автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет изменение посадочного диаметра на характеристики автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества могут быть при выборе шин с большим или меньшим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится высота профиля шины при смене посадочного диаметра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится общий диаметр колеса при установке шин с другим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе шин с определенным посадочным диаметром для улучшения проходимости автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на скорость и показания спидометра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный диаметр для шин при замене стандартных?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы особенности шин с большим посадочным диаметром для улучшения внешнего вида автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы последствия неправильного выбора посадочного диаметра для безопасности вождения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические аспекты нужно учитывать при выборе шин с различными посадочными диаметрами для передней и задней осей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на радиус поворота автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как проверить совместимость шин с заданным посадочным диаметром с тормозной системой автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы могут привести к износу шин при неправильном подборе посадочного диаметра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические характеристики следует учитывать при выборе шин с определенным посадочным диаметром для автомобилей с передним или задним приводом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие методы коррекции ошибок в посадочном диаметре шин могут быть использованы для поддержания оптимальных характеристик автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где можно получить дополнительную консультацию по выбору шин с учетом их посадочного диаметра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что представляет собой посадочный диаметр шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить посадочный диаметр шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В чем разница между посадочным диаметром и шириной шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр шин подходит для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где можно найти информацию о рекомендованном посадочном диаметре шин для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие единицы измерения используются для указания посадочного диаметра шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие шины имеют стандартный посадочный диаметр?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе шин с определенным посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я установить шины с другим посадочным диаметром на свой автомобиль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится поведение автомобиля при установке шин с другим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на общую высоту автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я установить шины с большим посадочным диаметром, чем установленный стандарт?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на управляемость автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится спидометр при установке шин с другим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы преимущества использования шин с большим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр выбрать для улучшения внешнего вида автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разными посадочными диаметрами устанавливаться на одну ось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр лучше выбрать для зимних условий?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на тормозную систему автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие шины предпочтительнее для городского вождения с учетом посадочного диаметра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный посадочный диаметр для легкового автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разными посадочными диаметрами быть установлены на одно и то же колесо?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр рекомендуется для внедорожников?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие последствия могут быть при неправильном выборе посадочного диаметра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить, подходят ли шины с определенным посадочным диаметром для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится расход топлива при смене шин с разным посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр выбрать для спортивного автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я установить шины с меньшим посадочным диаметром для увеличения проходимости?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр лучше всего подходит для экономии топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с правильным посадочным диаметром для безопасного вождения на высоких скоростях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится комфорт вождения при установке шин с разным посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр выбрать для максимальной износостойкости?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится устойчивость автомобиля при изменении посадочного диаметра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр рекомендуется для грузовых автомобилей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится динамика разгона и торможения при смене посадочного диаметра шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разными посадочными диаметрами повлиять на работу системы ABS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с правильным посадочным диаметром для тяжелых условий эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр выбрать для минимизации износа подвески?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на маневренность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным посадочным диаметром для автомобилей с полным приводом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с увеличенным посадочным диаметром ухудшить сцепление с дорогой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр выбрать для лучшей устойчивости на скользкой дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится дорожный просвет при установке шин с разным посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разными посадочными диаметрами повлиять на работу системы ESP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы типичные диаметры шин для различных классов автомобилей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменение посадочного диаметра влияет на поведение автомобиля на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В чем разница между шинами с большим и меньшим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества и недостатки у шин с разными посадочными диаметрами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на общий диаметр колеса и показания спидометра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменение диаметра шин влияет на расход топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с учетом посадочного диаметра для улучшения внешнего вида автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с другим посадочным диаметром повлиять на работу ABS и ESP систем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на управляемость и маневренность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли устанавливать шины с различным посадочным диаметром на переднюю и заднюю ось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе шин с определенным посадочным диаметром для передней и задней осей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр рекомендуется для использования зимних шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится радиус поворота автомобиля при смене посадочного диаметра шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на проходимость автомобиля в сложных дорожных условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические аспекты важны при выборе шин с определенным посадочным диаметром для автомобилей с передним или задним приводом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие дополнительные настройки автомобиля могут потребоваться при изменении посадочного диаметра шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с неподходящим посадочным диаметром повредить подвеску автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с оптимальным посадочным диаметром для длительных поездок на дальние расстояния?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе шин с определенным посадочным диаметром для экономии топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на комфортность поездок и шумоизоляцию автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с учетом посадочного диаметра для эксплуатации в условиях города и трассы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменение посадочного диаметра влияет на грузоподъемность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным посадочным диаметром для повышения безопасности при езде по снегу и льду?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы дисков совместимы с шинами определенного посадочного диаметра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с увеличенным посадочным диаметром повысить эффективность торможения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменение посадочного диаметра влияет на внутреннее пространство колесных арок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр шин наиболее подходит для автомобилей с высоким клиренсом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным посадочным диаметром для автомобилей с адаптивной подвеской?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с уменьшенным посадочным диаметром повлиять на работу системы стабилизации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы последствия использования шин с разным посадочным диаметром на разных осях автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на уровень шума и вибраций при движении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр шин рекомендуется для автомобилей с большой мощностью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каково определение посадочного диаметра шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Почему важно выбирать шины с соответствующим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как я могу найти посадочный диаметр текущих шин на моем автомобиле?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой влияние имеет неправильный посадочный диаметр на автомобиль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли использовать шины с другим посадочным диаметром, чем рекомендовано для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится характеристики автомобиля при установке шин с другим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр подходит для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится динамика движения автомобиля при изменении посадочного диаметра шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какое влияние имеет посадочный диаметр на показания спидометра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный посадочный диаметр при замене шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить, нужны ли мне шины с большим или меньшим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится расход топлива при смене посадочного диаметра шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как посадочный диаметр влияет на проходимость автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли изменения в посадочном диаметре повлиять на работу ABS или системы управления стабилизацией?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества выбора шин с различным посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на высоту профиля шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно подбирать шины с учетом посадочного диаметра для автомобилей с разными типами привода?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что произойдет, если я установлю шины с посадочным диаметром, отличающимся от рекомендованного?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр является стандартом для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие возможности есть для коррекции посадочного диаметра, если я хочу использовать шины другого размера?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие проблемы могут возникнуть при использовании шин с неправильным посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы технические ограничения при выборе шин с определенным посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр является наиболее распространенным для моего типа автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе шин с определенным посадочным диаметром для улучшения комфорта езды?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как посадочный диаметр влияет на управляемость автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным посадочным диаметром быть установлены на одну ось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет посадочный диаметр на износ подвески?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный посадочный диаметр для шин, если у меня установлены диски другого размера?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие изменения в поведении автомобиля я могу заметить при смене шин на модели с другим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы последствия использования шин с неправильным посадочным диаметром для трансмиссии автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как посадочный диаметр влияет на эффективность тормозной системы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным посадочным диаметром повлиять на работу системы контроля тяги или тягового контроля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный посадочный диаметр шины для того чтобы снизить уровень шума от дороги?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с увеличенным посадочным диаметром увеличить маневренность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой посадочный диаметр наиболее подходит для длительных поездок на автомобиле?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится уровень комфорта при установке шин с другим посадочным диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как посадочный диаметр влияет на сцепление шины с дорогой в различных условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с низким посадочным диаметром ухудшить проходимость автомобиля в условиях снега или грязи?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое типоразмер шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">типоразмер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как расшифровывается обозначение типоразмера шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как найти типоразмер шин, подходящий для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли использовать шины с другим типоразмером, чем указано в руководстве по эксплуатации автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие последствия могут быть при использовании шин с неправильным типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Влияет ли типоразмер шин на общие характеристики автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный типоразмер шин для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какая информация о типоразмере шин указывается на боковине шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли использовать разные типоразмеры шин на передних и задних осях автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится ход автомобиля при замене шин с другим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится дорожный просвет автомобиля при замене шин с другим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с большим типоразмером повредить арки колес?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с подходящим типоразмером для улучшения внешнего вида автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно подобрать шины с учетом типоразмера для сохранения точности спидометра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится расход топлива при использовании шин с другим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин лучше всего подходит для езды по бездорожью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится характеристика сцепления с дорогой при замене шин с другим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические характеристики следует учитывать при выборе шин с определенным типоразмером для автомобилей с передним и задним приводом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разными типоразмерами вызвать ошибки в системе ABS или ESP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как избежать повреждений подвески при замене шин с другим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования шин с типоразмером, не соответствующим рекомендованному производителем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с подходящим типоразмером для тюнинга автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер на маневренность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические параметры следует учитывать при выборе шин с разным типоразмером для сезонной эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы особенности выбора шин с учетом типоразмера для городского и загородного использования автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с оптимальным типоразмером для минимизации шума на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер на эффективность торможения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером привести к неравномерному износу шин и компонентов подвески?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения комфортной езды?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие дополнительные рекомендации могут быть предоставлены по выбору шин с учетом их типоразмера?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер на работу системы стабилизации и контроля тяги?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером повлиять на долговечность передач и дифференциалов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения оптимальной сцепляемости на различных типах дорожного покрытия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер на общий радиус поворота автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические нюансы следует учитывать при замене шин с учетом изменения типоразмера?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для улучшения динамики разгона и торможения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером повлиять на управляемость автомобиля при высоких скоростях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер на эффективность системы охлаждения тормозов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером вызвать перегрев тормозных механизмов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения оптимального сцепления на ледяных и снежных дорогах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер на общий комфорт и уровень шума в салоне автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером повлиять на работу системы антиблокировки тормозов (ABS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каково значение цифр и букв в типоразмере шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где на шине указывается типоразмер?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить текущий типоразмер установленных шин на моем автомобиле?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет изменение типоразмера шин на характеристики автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества могут быть при выборе шин с большим или меньшим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится высота профиля шины при смене типоразмера?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится общий диаметр колеса при установке шин с другим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин подходит для моего автомобиля, если я хочу изменить внешний вид?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для улучшения проходимости автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер на скорость и показания спидометра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный типоразмер шин для тюнинга автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с оптимальным типоразмером для минимизации расхода топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические аспекты нужно учитывать при выборе шин с различным типоразмером для передней и задней осей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с другим типоразмером вызвать ошибки в системе ABS или ESP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для улучшения управляемости и устойчивости на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения безопасности вождения на различных типах дорожного покрытия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для минимизации износа и повреждений шин и подвески?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технические параметры следует учитывать при выборе шин с определенным типоразмером для сезонной эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимальной безопасности при езде по снегу и льду?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального сцепления на мокрой дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимальной проходимости в бездорожье?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального комфорта во время езды?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения минимального уровня шума на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального срока службы и экономии ресурсов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального уровня экономичности в использовании топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения оптимального уровня тормозных характеристик?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального уровня устойчивости и комфорта при поворотах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального уровня управляемости на высоких скоростях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального уровня безопасности на дороге в различных климатических условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимальной долговечности и надежности в эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимальной эффективности и производительности автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения минимального уровня вибрации и шума при движении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального уровня защиты и безопасности на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где находится информация о типоразмере шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно прочитать типоразмер шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать подходящий типоразмер шин для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я использовать шины с другим типоразмером, чем указано в руководстве по эксплуатации автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каково значение числа и букв в типоразмере шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин наиболее распространен для моей марки и модели автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Влияет ли типоразмер шины на ее проходимость?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится общий диаметр колеса при замене шин с разным типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный типоразмер шин для улучшения внешнего вида автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы последствия использования шин с неправильным типоразмером на моем автомобиле?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на расход топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин подходит для езды по бездорожью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин рекомендуется для зимней эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером привести к ошибкам в системе ABS или ESP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения надежного сцепления с дорогой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на работу системы стабилизации и контроля тяги?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения безопасности на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин предпочтительнее для использования в городских условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимальной экономичности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на маневренность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин рекомендуется для использования в зимних условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для улучшения сцепления на различных типах дорожного покрытия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на радиус поворота автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения комфортного и плавного хода?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером вызвать ошибки в работе системы контроля давления в шинах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин предпочтительнее для использования в агрессивном режиме вождения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального срока службы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на эффективность торможения и управляемость на мокрой дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения наилучшего сцепления на снегу и льду?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером повлиять на электронные системы безопасности автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин рекомендуется для использования на автомобилях с передним приводом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимальной проходимости на бездорожье?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на устойчивость автомобиля во время движения по поворотам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения комфортной езды при перевозке пассажиров и грузов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером вызвать повышенный износ подвески и компонентов рулевого управления?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой типоразмер шин рекомендуется для использования на автомобилях с полным приводом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения наилучшей управляемости на высоких скоростях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где находится информация о типоразмере текущих шин на моем автомобиле?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с соответствующим типоразмером для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на общий диаметр колеса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится скорость и показания спидометра при замене шин с другим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный типоразмер шин при замене стандартных?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы последствия использования шин с неправильным типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы особенности шин с большим или меньшим типоразмером для улучшения проходимости автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как изменится расход топлива при замене шин с другим типоразмером?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе шин с определенным типоразмером для улучшения внешнего вида автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для минимизации шума на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как проверить совместимость шин с заданным типоразмером с тормозной системой автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие последствия могут быть при выборе шин с типоразмером, не соответствующим рекомендациям производителя автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на эффективность торможения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как проверить совместимость шин с определенным типоразмером с системой стабилизации и контроля тяги?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для улучшения управляемости автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на общую жесткость и комфортность хода автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для экономии топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на нагрузочную способность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером вызвать ошибки в системе ABS или ESP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения долговечности и надежности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на уровень шума в салоне автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для обеспечения максимального срока службы шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на эффективность охлаждения тормозных механизмов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли шины с разным типоразмером повлиять на стабильность и управляемость автомобиля при движении на высокой скорости?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать шины с определенным типоразмером для сохранения комфортных условий езды на различных типах дорожного покрытия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет типоразмер шин на динамические характеристики автомобиля?</t>
   </si>
 </sst>
 </file>
@@ -4516,7 +5338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4530,6 +5352,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4656,10 +5482,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1641"/>
+  <dimension ref="A1:B1942"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17795,6 +18621,2414 @@
         <v>1422</v>
       </c>
     </row>
+    <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1642" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1642" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1643" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1643" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1644" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1644" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1645" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1645" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1646" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1646" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1647" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1647" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1648" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1648" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1649" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1649" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1650" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1650" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1651" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1651" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1652" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1652" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1653" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1653" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1654" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1654" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1655" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1655" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1656" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1656" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1657" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1658" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1659" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1659" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1660" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1660" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1661" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1661" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1662" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1662" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1663" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1663" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1664" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1664" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1665" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1665" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1666" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1666" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1667" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1667" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1668" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1668" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1669" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1669" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1670" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1670" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1671" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1671" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1672" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1672" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1673" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1673" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1674" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1674" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1675" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1675" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1676" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1676" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1677" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1677" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1678" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1678" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1679" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1679" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1680" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1680" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1681" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1681" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1682" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1682" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1683" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1683" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1684" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1684" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1685" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1685" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1686" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1686" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1687" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1687" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1688" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1688" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1689" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1689" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1690" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1690" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1691" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1691" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1692" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1692" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1693" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1693" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1694" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1694" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1695" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1695" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1696" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1696" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1697" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1697" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1698" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1698" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1699" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1699" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1700" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1700" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1701" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1701" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1702" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1702" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1703" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1703" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1704" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1704" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1705" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1705" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1706" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1706" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1707" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1707" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1708" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1708" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1709" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1709" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1710" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1710" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1711" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1711" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1712" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1712" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1713" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1713" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1714" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1714" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1715" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1715" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1716" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1716" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1717" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1717" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1718" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1718" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1719" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1719" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1720" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1720" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1721" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1721" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1722" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1722" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1723" s="4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1723" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1724" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1724" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1725" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1725" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1725" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1726" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1726" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1727" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1727" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1728" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1728" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1729" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1729" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1730" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1730" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1731" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1731" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1732" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1732" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1733" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1733" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1734" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1734" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1735" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1735" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1736" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1736" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1737" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1737" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1738" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1738" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1739" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1739" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1740" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1740" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1741" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1741" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1742" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1742" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1743" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1743" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1744" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1744" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1745" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1745" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1746" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1746" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1747" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1747" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1748" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1748" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1749" s="4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1749" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1750" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1750" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1751" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1751" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1752" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1752" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1753" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1753" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1754" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1754" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1755" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1755" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1756" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1756" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1757" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1757" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1758" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1758" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1759" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1759" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1760" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1760" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1761" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1761" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1762" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1762" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1763" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1763" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1764" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1764" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1765" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1765" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1766" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1766" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1767" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1767" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1768" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1768" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1769" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1769" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1770" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1770" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1771" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1771" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1772" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1772" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1773" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1773" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1774" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1774" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1775" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1775" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1776" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1776" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1777" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1777" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1778" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1778" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1779" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1779" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1780" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1780" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1781" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1781" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1782" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1782" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1783" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1783" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1784" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1784" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1785" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1785" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1786" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1786" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1787" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1787" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1788" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1788" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1789" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1789" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1790" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1790" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1791" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1791" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1792" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1792" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1793" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1793" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1794" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1794" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1795" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1795" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1796" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1796" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1797" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1797" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1798" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1798" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1798" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1799" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1799" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1800" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1800" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1801" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1801" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1802" s="4" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1802" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1803" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1803" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1804" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1804" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1805" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1805" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1806" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1806" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1807" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1807" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1808" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1808" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1809" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1809" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1810" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1810" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1811" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1811" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1812" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1812" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1813" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1813" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1814" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1814" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1815" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1815" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1816" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1816" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1817" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1817" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1818" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1818" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1819" s="4" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1819" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1820" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1820" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1821" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1821" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1822" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1822" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1823" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1823" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1824" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1824" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1825" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1825" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1826" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1826" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1827" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1827" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1828" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1828" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1829" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1829" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1830" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1830" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1831" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1831" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1832" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1832" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1833" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1833" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1834" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1834" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1835" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1835" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1836" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1836" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1837" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1837" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1838" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1838" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1839" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1839" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1840" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1840" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1841" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1841" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1842" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1842" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1843" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1843" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1844" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1844" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1845" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1845" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1846" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1846" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1847" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1847" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1848" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1848" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1849" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1849" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1850" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1850" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1851" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1851" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1852" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1852" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1853" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1853" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1854" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1854" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1855" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1855" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1856" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1856" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1856" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1857" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1857" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1858" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1858" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1859" s="4" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1859" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1860" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1860" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1861" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1861" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1862" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1862" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1863" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1863" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1864" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1864" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1865" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1865" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1866" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1866" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1867" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1867" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1868" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1868" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1869" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1869" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1870" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1870" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1871" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1871" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1872" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1872" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1873" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1873" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1874" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1874" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1875" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1875" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1876" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1876" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1877" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1877" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1878" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1878" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1879" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1879" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1880" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1880" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1881" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1881" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1882" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1882" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1883" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1883" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1884" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1884" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1885" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1885" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1886" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1886" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1887" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1887" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1888" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1888" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1889" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1889" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1890" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1890" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1891" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1891" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1892" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1892" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1893" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1893" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1894" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1894" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1895" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1895" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1896" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1896" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1897" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1897" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1898" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1898" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1899" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1899" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1900" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1900" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1901" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1901" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1902" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1902" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1903" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1903" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1904" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1904" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1905" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1905" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1906" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1906" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1907" s="4" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1907" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1908" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1908" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1909" s="4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1909" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1910" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1910" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1911" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1911" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1912" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1912" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1913" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1913" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1914" s="4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1914" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1915" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1915" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1916" s="4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1916" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1917" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1917" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1918" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1918" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1919" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1919" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1920" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1920" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1921" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1921" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1922" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1922" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1923" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1923" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1924" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1924" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1925" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1925" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1926" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1926" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1927" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1927" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1928" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1928" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1929" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1929" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1930" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1930" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1931" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1931" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1932" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1932" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1933" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1933" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1934" s="4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1934" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1935" s="4" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1935" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1936" s="4" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1936" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1937" s="4" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1937" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1938" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1938" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1939" s="4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1939" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1940" s="4" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1940" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1941" s="4" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1941" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1942" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1942" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/lib/tires_FAQs.xlsx
+++ b/lib/tires_FAQs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4738" uniqueCount="2167">
   <si>
     <t xml:space="preserve">Что такое летние шины?</t>
   </si>
@@ -5258,6 +5258,1269 @@
   </si>
   <si>
     <t xml:space="preserve">Как влияет типоразмер шин на динамические характеристики автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое легкосплавные диски?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">легкосплавные диски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества имеют легкосплавные диски по сравнению с стальными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой материал используется для изготовления легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы основные характеристики легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы отделки доступны для легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие размеры легкосплавных дисков существуют?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могу ли я установить легкосплавные диски на свой автомобиль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки автомобилей чаще всего используют легкосплавные диски?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества имеет использование легкосплавных дисков на автомобиле?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какова стоимость легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В чем разница между оригинальными и афтермаркетовыми легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски улучшить производительность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности установки легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Насколько легки легкосплавные диски по сравнению со стальными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на расход топлива автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть подвержены коррозии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как ухаживать за легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какова максимальная нагрузка, которую может выдержать легкосплавный диск?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какова гарантия на легкосплавные диски?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски улучшить внешний вид моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие технологии используются при производстве легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности дизайна доступны для легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы покрытий могут быть использованы для защиты легкосплавных дисков от коррозии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть установлены на автомобиль с увеличенным дорожным просветом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие бренды легкосплавных дисков рекомендуется использовать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы особенности производства легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какова максимальная скорость, которую может выдержать легкосплавный диск?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть использованы на автомобилях с высоким уровнем мощности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существует ли возможность перекрашивать легкосплавные диски?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы возможные проблемы, связанные с легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто следует проводить проверку состояния легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой эффект оказывает температура окружающей среды на легкосплавные диски?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть установлены на автомобили с системами ABS и ESP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какую роль играет вылет (ET) при выборе легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть установлены на автомобили с адаптивной подвеской?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки легкосплавных дисков наиболее популярны на рынке?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы колесных гаек или болтов подходят для легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности конструкции легкосплавных дисков делают их более привлекательными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки больших легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какое влияние оказывает вес легкосплавных дисков на динамику автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть недостатки использования легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы тормозных систем могут быть совместимы с легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какова процедура замены легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы грунтовки используются для легкосплавных дисков перед покраской?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть установлены на автомобили с тяжелым грузовым багажом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия несанкционированного изменения размера легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы основные различия между кованными и литыми легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие характеристики легкосплавных дисков важны для улучшения управляемости автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть установлены на автомобили с увеличенным клиренсом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы легкосплавных дисков наиболее подходят для езды по горным дорогам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть установлены на автомобили с пневматической подвеской?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какую роль играет диаметр легкосплавных дисков при выборе?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества имеют легкосплавные диски перед стальными в условиях влажной погоды?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с передним приводом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества имеют легкосплавные диски в городских условиях эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть использованы на автомобилях с системами полного привода (AWD)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности изготовления легкосплавных дисков делают их лучшим выбором для городского стиля жизни?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть причины для замены легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой дизайн легкосплавных дисков подходит для автомобилей с классическим стилем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть проблемы с легкосплавными дисками на дорогах с плохим покрытием?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски улучшить тормозную систему автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности монтажа легкосплавных дисков на автомобили с низким клиренсом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на маневренность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каковы особенности процесса балансировки легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества имеет использование легкосплавных дисков при езде на высоких скоростях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть использованы на автомобилях с электрическим приводом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для семейных автомобилей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования некачественных легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть использованы на автомобилях с адаптивными демпферами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высоким клиренсом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить нагрузку на подвеску автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какова процедура замены легкосплавных дисков на автомобиле?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с экономичными двигателями?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы стабилизации (ESP)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокой проходимостью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности эксплуатации легкосплавных дисков в зимние месяцы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить шум от дороги в салоне автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с адаптивной подвеской?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для спортивных автомобилей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ тормозных колодок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с большим клиренсом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски улучшить управляемость автомобиля на мокрой дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков на гоночных автомобилях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на динамические характеристики автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с низким профилем шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть установлены на автомобили с системами адаптивного круиз-контроля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности установки легкосплавных дисков на автомобили с увеличенным дорожным просветом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какова процедура обслуживания легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков на городских автомобилях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ подшипников ступицы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами посадки на парковку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы динамической стабилизации (DSC)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с большим количеством пассажиров?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски увеличить эффективность охлаждения тормозов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами управления давлением в шинах (TPMS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с автоматической коробкой передач?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски улучшить управляемость автомобиля на сухой дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности установки легкосплавных дисков на автомобили с электронными системами антиблокировки тормозов (ABS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с небольшим радиусом поворота?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы стабилизации тягового контроля (TCS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами помощи при парковке?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков на автомобилях с турбонаддувом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ амортизаторов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами адаптивного освещения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокими требованиями к комфорту?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы управления тяговым векторированием?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами активного круиз-контроля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами мониторинга слепых зон?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевых колонок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами подогрева рулевого колеса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при спуске с горы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами активного управления скоростью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами адаптивной аэродинамики?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевых механизмов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами обнаружения пешеходов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокой управляемостью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при парковке?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами предупреждения о столкновении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами стабилизации прицепа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ тормозных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами мониторинга дорожной разметки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокой устойчивостью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы предупреждения о попадании в слепую зону?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами контроля давления в шинах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами помощи при посадке на парковку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевой рейки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами предупреждения о столкновении с пешеходами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокой степенью автоматизации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при движении в заднем направлении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения объектов в слепой зоне?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами автоматического переключения дальнего света?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ шарнирных соединений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами мониторинга усталости водителя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высоким уровнем безопасности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при парковке вдоль дороги?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами контроля за полосой движения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами автоматического снижения скорости перед столкновением?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ стойки стабилизатора?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами предупреждения о пробках?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокой маневренностью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при движении на перекрестках?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами адаптивного круиз-контроля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами предупреждения о столкновении с другими автомобилями?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевых реек?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами управления дистанционным автоматическим управлением?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокими показателями топливной экономичности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при обнаружении автомобилей в точке слепого угла?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами предупреждения о столкновении с транспортными средствами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами автоматического переключения ближнего света?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевых тяг?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами автоматической коррекции траектории движения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высоким уровнем безопасности пассажиров?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами предупреждения о столкновении с автомобилями встречного движения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами контроля за поясом безопасности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевых опор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами детектирования угроз на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокими показателями проходимости?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при движении по поворотам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами предупреждения о столкновении с пешеходами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами мониторинга скорости вращения колес?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевых реек и рулевых тяг?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами антизаноса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при резком торможении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения пешеходов на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевой рейки и рулевых опор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами адаптивного круиз-контроля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при длительном торможении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения других транспортных средств на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами автоматического управления тормозами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевых реек, рулевых тяг и рулевых опор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами мониторинга угла наклона?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокими показателями стабильности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при движении по скользкой дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения мотоциклов на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами стабилизации на скользком покрытии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевой рейки, рулевых тяг и рулевых опор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами контроля полосы движения на скользком покрытии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокими показателями адаптивности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при управлении на сухом покрытии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения пешеходов в условиях низкой видимости?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами контроля за сцеплением?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевой рейки, рулевых тяг и рулевых опор на дорогах с плохим покрытием?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами мониторинга водителя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокими показателями маневренности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при управлении на мокром покрытии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения препятствий в зоне слепого обзора?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами автоматического распознавания дорожных знаков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ рулевой рейки, рулевых тяг и рулевых опор на дорогах с неровностями?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высоким уровнем безопасности пешеходов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при управлении на гололедице?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения препятствий на обочине?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами контроля за активностью водителя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при управлении автомобилем на скользкой дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения велосипедистов на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами адаптивного управления скоростью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ шарнирных соединений подвески?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами предупреждения о неправильном давлении в шинах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть рекомендации по выбору легкосплавных дисков для автомобилей с высокими показателями комфорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при совершении экстренного торможения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения статических препятствий на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами контроля усталости водителя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски уменьшить износ амортизаторных опор?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть особенности использования легкосплавных дисков на автомобилях с системами предупреждения о неправильном положении полосы движения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы помощи при движении на неровной дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков на автомобилях с системами обнаружения статических объектов в зоне движения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества установки легкосплавных дисков на автомобили с системами адаптивного управления трансмиссией?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет материал изготовления на характеристики легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы покрытий применяются на легкосплавных дисках и какие преимущества они имеют?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный размер легкосплавных дисков для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы влияют на выбор ширины дисков для установки на автомобиль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В чем разница между литыми и коваными легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности кованных легкосплавных дисков делают их предпочтительным выбором для автомобилей с высокой скоростью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы дисковых колесных гаек подходят для легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно установить и затянуть гайки на легкосплавных дисках?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть покрашены в другой цвет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества покраски легкосплавных дисков по сравнению с покрытием?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно очищать и ухаживать за легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть восстановлены после повреждений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы дисковых тормозных систем совместимы с легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет дизайн диска на его вес и производительность?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества имеют специальные дизайны легкосплавных дисков, такие как сплит-споки или многодисковые?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть использованы с шинами Run-Flat?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия неправильной установки или затяжки гаек на легкосплавных дисках?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какая роль имеют центральные кольца при установке легкосплавных дисков на автомобиль?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы прокладок используются при установке легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет ширина и вылет (ET) легкосплавных дисков на внешний вид и производительность автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы болтовых кругов поддерживаются легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы болтов и гаек используются для крепления легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с низким весом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно хранить легкосплавные диски во избежание повреждений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на гарантию автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть причины вибрации или шума после установки легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить правильный размер центрального отверстия для легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с неправильным вылетом (ET)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы монтажных болтов используются для крепления легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как определить правильное соотношение диаметра и ширины легкосплавных дисков для моего автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы ABS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с высоким коэффициентом сжатия?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы легкосплавных дисков предпочтительнее для автомобилей с высоким клиренсом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с неправильным PCD (Pitch Circle Diameter)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы шин подходят для установки на легкосплавные диски?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски изменить общий вес автомобиля и как это влияет на производительность?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с интегрированным датчиком давления в шинах (TPMS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы покрышек предпочтительнее для использования с легкосплавными дисками на разных типах дорог?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой диапазон температур может выдерживать легкосплавной диск без ущерба для его характеристик?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования низкокачественных легкосплавных дисков для автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет диаметр диска на характеристики управляемости и проходимости автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества выбора легкосплавных дисков с увеличенным количеством отверстий для вентиляции тормозов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы гаек для крепления легкосплавных дисков лучше всего подходят для условий эксплуатации в зимний период?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с несоответствующим диаметром для автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть повреждены при неблагоприятных погодных условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с вентиляционными каналами для охлаждения тормозов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой процесс производства легкосплавных дисков обеспечивает наилучшее соотношение прочности и веса?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различными диаметрами на передних и задних осях автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет профиль диска на поведение автомобиля на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы стабилизации прицепа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с аэродинамическими элементами для снижения аэродинамического сопротивления автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различными характеристиками (вылет, диаметр) на одной оси автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть подвержены коррозии и как это можно предотвратить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с антивандальным покрытием для защиты от повреждений?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различным количеством спиц на поведение автомобиля на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы антипробуксовочной сцепления?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с повышенной жесткостью для повышения управляемости автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различным количеством отверстий для крепления на общую прочность конструкции?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы автоматического переключения передач?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с системой самоочищения для обеспечения лучшего сцепления с дорогой в непогоду?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различными типами крепления (гайки, болты) на нагрузочные характеристики?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы динамического управления устойчивостью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с интегрированным датчиком температуры для контроля теплового режима тормозных систем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различными формами спиц на аэродинамические характеристики автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с теплоотводящим покрытием для предотвращения перегрева тормозных систем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различной толщиной для равномерности распределения нагрузки на шину?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы электронного управления двигателем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с уменьшенным количеством спиц для снижения массы диска и улучшения аэродинамических характеристик автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различной шириной спиц на вибрацию и уровень шума в салоне автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы управления распределением тормозных усилий между передними и задними колесами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с системой адаптивного управления воздушным давлением в шинах для повышения эффективности торможения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различным профилем спиц на аэродинамические характеристики и устойчивость автомобиля на высоких скоростях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы управления стабилизацией тягового контроля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с системой автоматического регулирования жесткости подвески для улучшения управляемости и комфорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различной геометрией спиц на динамику вращения колеса и эффективность торможения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы автоматического управления вибрацией?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с интегрированными каналами для охлаждения тормозов для предотвращения перегрева и сохранения эффективности торможения?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различными габаритами для эстетики и пропорций автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы управления антиблокировочными тормозами (ABS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с интегрированными вентиляционными каналами для повышения эффективности торможения и снижения риска перегрева тормозных систем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различной конструкцией для общей прочности и устойчивости диска к нагрузкам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы управления устойчивостью при торможении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с интегрированными датчиками температуры для контроля нагрева тормозных систем и предотвращения перегрева?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различным количеством крепежных отверстий для установки на разные модели автомобилей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы управления стабилизацией прицепа?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с интегрированными датчиками давления в шинах для контроля и обеспечения оптимального давления в шинах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различной глубиной вырезов для улучшения аэродинамических характеристик и снижения аэродинамического сопротивления автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы управления стабилизацией при движении по пересеченной местности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть преимущества использования легкосплавных дисков с интегрированными датчиками проколов для моментального оповещения о проколе шины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие могут быть последствия использования легкосплавных дисков с различным углом наклона спиц для эстетического воздействия и аэродинамических характеристик?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски повлиять на работу системы управления тяговым контролем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать правильный размер дисков для моего легкового автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе ширины дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы покрышек могут быть использованы с различными ширинами дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой профиль шины наиболее подходит для определенного размера диска?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет диаметр диска на характеристики автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества и недостатки у дисков с большим и малым диаметром?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой вес дисков оптимален для повседневного использования автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет вес дисков на расход топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие материалы используются для изготовления легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества у легкосплавных дисков перед стальными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие виды легкосплавных дисков наиболее распространены на рынке?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет форма спиц дисков на их производительность?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть устойчивыми к коррозии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества у покрытия дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой тип покрытия лучше всего подходит для различных условий эксплуатации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно ухаживать за легкосплавными дисками, чтобы сохранить их в хорошем состоянии?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут ли легкосплавные диски быть устойчивыми к воздействию соли на дорогах зимой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие стандарты безопасности применяются при производстве легкосплавных дисков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какая разница между литыми и коваными легкосплавными дисками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие характеристики дисков важны для обеспечения надежности на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как выбрать подходящие грузовые шины для моего коммерческого транспортного средства?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> грузовые шины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие факторы следует учитывать при выборе грузовых шин для различных видов грузовых автомобилей?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой размер шин подходит для моего грузового автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы протектора наиболее подходят для различных условий эксплуатации грузового автотранспорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие особенности у грузовых шин для автобусов по сравнению с грузовиками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет индекс нагрузки на выбор грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой индекс скорости следует выбирать для грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как правильно считывать маркировку на грузовых шинах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин считаются наиболее надежными на рынке?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет профиль шины на грузоподъемность и управляемость грузового транспорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин лучше всего подходят для длительных перевозок на дальние расстояния?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие характеристики грузовых шин важны для езды по бездорожью или пересеченной местности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие типы рисунка протектора грузовых шин обеспечивают лучшее сцепление на мокрой или обледенелой дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой процент износа считается безопасным для грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как часто следует проводить замену грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества у радиальных грузовых шин по сравнению с диагональными?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины рассчитаны на высокую скорость и нагрузку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества у грузовых шин с усиленным боковым слоем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин имеют длительный срок службы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет давление в шинах на производительность грузового транспорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие виды шинного протектора предлагают лучшую управляемость на горных дорогах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины наиболее подходят для перевозки тяжелых грузов по городским улицам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры предосторожности следует соблюдать при эксплуатации грузовых шин в условиях низких температур?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет климатический регион на выбор грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины наиболее устойчивы к проколам и порезам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества у грузовых шин с большими боковыми блоками?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины рассчитаны на эксплуатацию в условиях снегопада и льда?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие характеристики шин важны для грузового транспорта с большой длиной кузова?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины обеспечивают наилучшую амортизацию на неровных дорогах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин рекомендуются для использования в тропических условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины предлагают оптимальное сцепление на гравийных дорогах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие характеристики шин важны для грузового транспорта, работающего в условиях повышенного влажности?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины предназначены для эксплуатации на перевалочных пунктах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры предосторожности следует соблюдать при эксплуатации грузовых шин в жарких условиях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет грузоподъемность грузовых шин на безопасность перевозок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины обеспечивают минимальное сопротивление качению и, как следствие, экономию топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин обладают оптимальной стойкостью к износу?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет грузовая шина на срок службы тормозных систем автотранспорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой тип шинного протектора обеспечивает лучшую устойчивость грузового автотранспорта на влажной дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин обеспечивают лучшую управляемость при перевозке неустойчивых грузов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие преимущества у грузовых шин с пониженным уровнем шума на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияют рабочие температуры на производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры предосторожности следует соблюдать при эксплуатации грузовых шин на длительных дистанциях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины предлагают лучшую устойчивость к загрязнениям и влаге на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияют неровности дороги на износ грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин предлагают лучшую адаптацию к непредвиденным изменениям погоды?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях сильного ветра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины обеспечивают наилучшую устойчивость к внешним воздействиям, таким как удары о камни и грязь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияют условия эксплуатации на выбор материала изготовления грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин рекомендуются для использования на неровных и грунтовых дорогах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях падающего льда и снега?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияют условия эксплуатации на выбор типа шинного протектора?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины предлагают наилучшую устойчивость к пробуксовке и заносу на обледенелых поверхностях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияют нагрузка и скорость на износ грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях низкой видимости?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияют настройки подвески на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие марки грузовых шин рекомендуются для эксплуатации на строительных площадках?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует соблюдать при эксплуатации грузовых шин на участках с пониженным сцеплением?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет износ грузовых шин на расход топлива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие грузовые шины рекомендуются для использования на горных серпантинах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин на дорогах с повышенной каменистостью?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет частота поворотов на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин на участках с повышенным риском грызения покрышек?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет наличие груза на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин на дорогах с неровным покрытием?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет качество дорожного покрытия на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин на участках с повышенным риском прокола покрышек?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет температурный режим эксплуатации на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях повышенной влажности и грязи?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет эксплуатация на асфальтированных дорогах на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин на участках с повышенным риском столкновения с острыми предметами на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет частота торможения на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях повышенной загруженности автомобиля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет скорость движения на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях высокой температуры окружающего воздуха?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет стиль вождения на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях сильного ветра и бокового ветра?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет наличие грунтовых дорог на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях повышенного риска попадания в ямы и кюветы на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет наличие гравийных участков на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях интенсивного движения и частых остановок?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет загруженность автомобиля на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях сильного дождя и ливневых потоков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет наличие перекрестков и развязок на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях ограниченной видимости и тумана?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет состояние дороги на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях интенсивного движения и заторов?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет степень наклона дороги на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин на участках с неровным и волнующим покрытием дороги?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет наличие кривых и поворотов на износ и производительность грузовых шин?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин на участках с повышенным риском скольжения и потери сцепления с дорогой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет уровень шума на производительность и комфортность грузового транспорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях ограниченной видимости и темного времени суток?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет риск прокола шины на безопасность и производительность грузового транспорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях сильного снегопада и скользкой дороги?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет уровень износа шин на безопасность и производительность грузового транспорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях гололедицы и гололедицы?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет давление в шинах на производительность и безопасность грузового транспорта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие меры безопасности следует принимать при эксплуатации грузовых шин в условиях тяжелого трафика и перегрузок на дороге?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как влияет качество шинного протектора на сцепление с дорогой и производительность грузового транспорта?</t>
   </si>
 </sst>
 </file>
@@ -5267,7 +6530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5294,6 +6557,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5338,7 +6606,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5357,6 +6625,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5482,15 +6754,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1942"/>
+  <dimension ref="A1:B2369"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2261" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2279" activeCellId="0" sqref="K2279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="122.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18622,2411 +19895,5827 @@
       </c>
     </row>
     <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1642" s="4" t="s">
+      <c r="A1642" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="B1642" s="0" t="s">
+      <c r="B1642" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1643" s="4" t="s">
+      <c r="A1643" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="B1643" s="0" t="s">
+      <c r="B1643" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1644" s="4" t="s">
+      <c r="A1644" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="B1644" s="0" t="s">
+      <c r="B1644" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1645" s="4" t="s">
+      <c r="A1645" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="B1645" s="0" t="s">
+      <c r="B1645" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1646" s="4" t="s">
+      <c r="A1646" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="B1646" s="0" t="s">
+      <c r="B1646" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1647" s="4" t="s">
+      <c r="A1647" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="B1647" s="0" t="s">
+      <c r="B1647" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1648" s="4" t="s">
+      <c r="A1648" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="B1648" s="0" t="s">
+      <c r="B1648" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1649" s="4" t="s">
+      <c r="A1649" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="B1649" s="0" t="s">
+      <c r="B1649" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1650" s="4" t="s">
+      <c r="A1650" s="2" t="s">
         <v>1481</v>
       </c>
-      <c r="B1650" s="0" t="s">
+      <c r="B1650" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1651" s="4" t="s">
+      <c r="A1651" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="B1651" s="0" t="s">
+      <c r="B1651" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1652" s="4" t="s">
+      <c r="A1652" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="B1652" s="0" t="s">
+      <c r="B1652" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1653" s="4" t="s">
+      <c r="A1653" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="B1653" s="0" t="s">
+      <c r="B1653" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1654" s="4" t="s">
+      <c r="A1654" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="B1654" s="0" t="s">
+      <c r="B1654" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1655" s="4" t="s">
+      <c r="A1655" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="B1655" s="0" t="s">
+      <c r="B1655" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1656" s="4" t="s">
+      <c r="A1656" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="B1656" s="0" t="s">
+      <c r="B1656" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1657" s="4" t="s">
+      <c r="A1657" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="B1657" s="0" t="s">
+      <c r="B1657" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1658" s="4" t="s">
+      <c r="A1658" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="B1658" s="0" t="s">
+      <c r="B1658" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1659" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1659" s="4" t="s">
+      <c r="A1659" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="B1659" s="0" t="s">
+      <c r="B1659" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1660" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1660" s="4" t="s">
+      <c r="A1660" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="B1660" s="0" t="s">
+      <c r="B1660" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1661" s="4" t="s">
+      <c r="A1661" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="B1661" s="0" t="s">
+      <c r="B1661" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1662" s="4" t="s">
+      <c r="A1662" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="B1662" s="0" t="s">
+      <c r="B1662" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1663" s="4" t="s">
+      <c r="A1663" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="B1663" s="0" t="s">
+      <c r="B1663" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1664" s="4" t="s">
+      <c r="A1664" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="B1664" s="0" t="s">
+      <c r="B1664" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1665" s="4" t="s">
+      <c r="A1665" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="B1665" s="0" t="s">
+      <c r="B1665" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1666" s="4" t="s">
+      <c r="A1666" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="B1666" s="0" t="s">
+      <c r="B1666" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1667" s="4" t="s">
+      <c r="A1667" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="B1667" s="0" t="s">
+      <c r="B1667" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1668" s="4" t="s">
+      <c r="A1668" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="B1668" s="0" t="s">
+      <c r="B1668" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1669" s="4" t="s">
+      <c r="A1669" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="B1669" s="0" t="s">
+      <c r="B1669" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1670" s="4" t="s">
+      <c r="A1670" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="B1670" s="0" t="s">
+      <c r="B1670" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1671" s="4" t="s">
+      <c r="A1671" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="B1671" s="0" t="s">
+      <c r="B1671" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1672" s="4" t="s">
+      <c r="A1672" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="B1672" s="0" t="s">
+      <c r="B1672" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1673" s="4" t="s">
+      <c r="A1673" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="B1673" s="0" t="s">
+      <c r="B1673" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1674" s="4" t="s">
+      <c r="A1674" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="B1674" s="0" t="s">
+      <c r="B1674" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1675" s="4" t="s">
+      <c r="A1675" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="B1675" s="0" t="s">
+      <c r="B1675" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1676" s="4" t="s">
+      <c r="A1676" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="B1676" s="0" t="s">
+      <c r="B1676" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1677" s="4" t="s">
+      <c r="A1677" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="B1677" s="0" t="s">
+      <c r="B1677" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1678" s="4" t="s">
+      <c r="A1678" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="B1678" s="0" t="s">
+      <c r="B1678" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1679" s="4" t="s">
+      <c r="A1679" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="B1679" s="0" t="s">
+      <c r="B1679" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1680" s="4" t="s">
+      <c r="A1680" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="B1680" s="0" t="s">
+      <c r="B1680" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1681" s="4" t="s">
+      <c r="A1681" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="B1681" s="0" t="s">
+      <c r="B1681" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1682" s="4" t="s">
+      <c r="A1682" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="B1682" s="0" t="s">
+      <c r="B1682" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1683" s="4" t="s">
+      <c r="A1683" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="B1683" s="0" t="s">
+      <c r="B1683" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1684" s="4" t="s">
+      <c r="A1684" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="B1684" s="0" t="s">
+      <c r="B1684" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1685" s="4" t="s">
+      <c r="A1685" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="B1685" s="0" t="s">
+      <c r="B1685" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1686" s="4" t="s">
+      <c r="A1686" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="B1686" s="0" t="s">
+      <c r="B1686" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1687" s="4" t="s">
+      <c r="A1687" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="B1687" s="0" t="s">
+      <c r="B1687" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1688" s="4" t="s">
+      <c r="A1688" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="B1688" s="0" t="s">
+      <c r="B1688" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1689" s="4" t="s">
+      <c r="A1689" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="B1689" s="0" t="s">
+      <c r="B1689" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1690" s="4" t="s">
+      <c r="A1690" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="B1690" s="0" t="s">
+      <c r="B1690" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1691" s="4" t="s">
+      <c r="A1691" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="B1691" s="0" t="s">
+      <c r="B1691" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1692" s="4" t="s">
+      <c r="A1692" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="B1692" s="0" t="s">
+      <c r="B1692" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1693" s="4" t="s">
+      <c r="A1693" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="B1693" s="0" t="s">
+      <c r="B1693" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1694" s="4" t="s">
+      <c r="A1694" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="B1694" s="0" t="s">
+      <c r="B1694" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1695" s="4" t="s">
+      <c r="A1695" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="B1695" s="0" t="s">
+      <c r="B1695" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1696" s="4" t="s">
+      <c r="A1696" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="B1696" s="0" t="s">
+      <c r="B1696" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1697" s="4" t="s">
+      <c r="A1697" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="B1697" s="0" t="s">
+      <c r="B1697" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1698" s="4" t="s">
+      <c r="A1698" s="2" t="s">
         <v>1529</v>
       </c>
-      <c r="B1698" s="0" t="s">
+      <c r="B1698" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1699" s="4" t="s">
+      <c r="A1699" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="B1699" s="0" t="s">
+      <c r="B1699" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1700" s="4" t="s">
+      <c r="A1700" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="B1700" s="0" t="s">
+      <c r="B1700" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1701" s="4" t="s">
+      <c r="A1701" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="B1701" s="0" t="s">
+      <c r="B1701" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1702" s="4" t="s">
+      <c r="A1702" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="B1702" s="0" t="s">
+      <c r="B1702" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1703" s="4" t="s">
+      <c r="A1703" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="B1703" s="0" t="s">
+      <c r="B1703" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1704" s="4" t="s">
+      <c r="A1704" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="B1704" s="0" t="s">
+      <c r="B1704" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1705" s="4" t="s">
+      <c r="A1705" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="B1705" s="0" t="s">
+      <c r="B1705" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1706" s="4" t="s">
+      <c r="A1706" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="B1706" s="0" t="s">
+      <c r="B1706" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1707" s="4" t="s">
+      <c r="A1707" s="2" t="s">
         <v>1537</v>
       </c>
-      <c r="B1707" s="0" t="s">
+      <c r="B1707" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1708" s="4" t="s">
+      <c r="A1708" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="B1708" s="0" t="s">
+      <c r="B1708" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1709" s="4" t="s">
+      <c r="A1709" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="B1709" s="0" t="s">
+      <c r="B1709" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1710" s="4" t="s">
+      <c r="A1710" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="B1710" s="0" t="s">
+      <c r="B1710" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1711" s="4" t="s">
+      <c r="A1711" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="B1711" s="0" t="s">
+      <c r="B1711" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1712" s="4" t="s">
+      <c r="A1712" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="B1712" s="0" t="s">
+      <c r="B1712" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1713" s="4" t="s">
+      <c r="A1713" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="B1713" s="0" t="s">
+      <c r="B1713" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1714" s="4" t="s">
+      <c r="A1714" s="2" t="s">
         <v>1541</v>
       </c>
-      <c r="B1714" s="0" t="s">
+      <c r="B1714" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1715" s="4" t="s">
+      <c r="A1715" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="B1715" s="0" t="s">
+      <c r="B1715" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1716" s="4" t="s">
+      <c r="A1716" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="B1716" s="0" t="s">
+      <c r="B1716" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1717" s="4" t="s">
+      <c r="A1717" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="B1717" s="0" t="s">
+      <c r="B1717" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1718" s="4" t="s">
+      <c r="A1718" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="B1718" s="0" t="s">
+      <c r="B1718" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1719" s="4" t="s">
+      <c r="A1719" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="B1719" s="0" t="s">
+      <c r="B1719" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1720" s="4" t="s">
+      <c r="A1720" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="B1720" s="0" t="s">
+      <c r="B1720" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1721" s="4" t="s">
+      <c r="A1721" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B1721" s="0" t="s">
+      <c r="B1721" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1722" s="4" t="s">
+      <c r="A1722" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B1722" s="0" t="s">
+      <c r="B1722" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1723" s="4" t="s">
+      <c r="A1723" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="B1723" s="0" t="s">
+      <c r="B1723" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1724" s="4" t="s">
+      <c r="A1724" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="B1724" s="0" t="s">
+      <c r="B1724" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1725" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1725" s="4" t="s">
+      <c r="A1725" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="B1725" s="0" t="s">
+      <c r="B1725" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1726" s="4" t="s">
+      <c r="A1726" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="B1726" s="0" t="s">
+      <c r="B1726" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1727" s="4" t="s">
+      <c r="A1727" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="B1727" s="0" t="s">
+      <c r="B1727" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1728" s="4" t="s">
+      <c r="A1728" s="2" t="s">
         <v>1554</v>
       </c>
-      <c r="B1728" s="0" t="s">
+      <c r="B1728" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1729" s="4" t="s">
+      <c r="A1729" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="B1729" s="0" t="s">
+      <c r="B1729" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1730" s="4" t="s">
+      <c r="A1730" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="B1730" s="0" t="s">
+      <c r="B1730" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1731" s="4" t="s">
+      <c r="A1731" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="B1731" s="0" t="s">
+      <c r="B1731" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1732" s="4" t="s">
+      <c r="A1732" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="B1732" s="0" t="s">
+      <c r="B1732" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1733" s="4" t="s">
+      <c r="A1733" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="B1733" s="0" t="s">
+      <c r="B1733" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1734" s="4" t="s">
+      <c r="A1734" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="B1734" s="0" t="s">
+      <c r="B1734" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1735" s="4" t="s">
+      <c r="A1735" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="B1735" s="0" t="s">
+      <c r="B1735" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1736" s="4" t="s">
+      <c r="A1736" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="B1736" s="0" t="s">
+      <c r="B1736" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1737" s="4" t="s">
+      <c r="A1737" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="B1737" s="0" t="s">
+      <c r="B1737" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1738" s="4" t="s">
+      <c r="A1738" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="B1738" s="0" t="s">
+      <c r="B1738" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1739" s="4" t="s">
+      <c r="A1739" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="B1739" s="0" t="s">
+      <c r="B1739" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1740" s="4" t="s">
+      <c r="A1740" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="B1740" s="0" t="s">
+      <c r="B1740" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1741" s="4" t="s">
+      <c r="A1741" s="2" t="s">
         <v>1567</v>
       </c>
-      <c r="B1741" s="0" t="s">
+      <c r="B1741" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1742" s="4" t="s">
+      <c r="A1742" s="2" t="s">
         <v>1568</v>
       </c>
-      <c r="B1742" s="0" t="s">
+      <c r="B1742" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1743" s="4" t="s">
+      <c r="A1743" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="B1743" s="0" t="s">
+      <c r="B1743" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1744" s="4" t="s">
+      <c r="A1744" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="B1744" s="0" t="s">
+      <c r="B1744" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1745" s="4" t="s">
+      <c r="A1745" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="B1745" s="0" t="s">
+      <c r="B1745" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1746" s="4" t="s">
+      <c r="A1746" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="B1746" s="0" t="s">
+      <c r="B1746" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1747" s="4" t="s">
+      <c r="A1747" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="B1747" s="0" t="s">
+      <c r="B1747" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1748" s="4" t="s">
+      <c r="A1748" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="B1748" s="0" t="s">
+      <c r="B1748" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1749" s="4" t="s">
+      <c r="A1749" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="B1749" s="0" t="s">
+      <c r="B1749" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1750" s="4" t="s">
+      <c r="A1750" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="B1750" s="0" t="s">
+      <c r="B1750" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1751" s="4" t="s">
+      <c r="A1751" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="B1751" s="0" t="s">
+      <c r="B1751" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1752" s="4" t="s">
+      <c r="A1752" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="B1752" s="0" t="s">
+      <c r="B1752" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1753" s="4" t="s">
+      <c r="A1753" s="2" t="s">
         <v>1579</v>
       </c>
-      <c r="B1753" s="0" t="s">
+      <c r="B1753" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1754" s="4" t="s">
+      <c r="A1754" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="B1754" s="0" t="s">
+      <c r="B1754" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1755" s="4" t="s">
+      <c r="A1755" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="B1755" s="0" t="s">
+      <c r="B1755" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1756" s="4" t="s">
+      <c r="A1756" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="B1756" s="0" t="s">
+      <c r="B1756" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1757" s="4" t="s">
+      <c r="A1757" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="B1757" s="0" t="s">
+      <c r="B1757" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1758" s="4" t="s">
+      <c r="A1758" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="B1758" s="0" t="s">
+      <c r="B1758" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1759" s="4" t="s">
+      <c r="A1759" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="B1759" s="0" t="s">
+      <c r="B1759" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1760" s="4" t="s">
+      <c r="A1760" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="B1760" s="0" t="s">
+      <c r="B1760" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1761" s="4" t="s">
+      <c r="A1761" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="B1761" s="0" t="s">
+      <c r="B1761" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1762" s="4" t="s">
+      <c r="A1762" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="B1762" s="0" t="s">
+      <c r="B1762" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1763" s="4" t="s">
+      <c r="A1763" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="B1763" s="0" t="s">
+      <c r="B1763" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1764" s="4" t="s">
+      <c r="A1764" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="B1764" s="0" t="s">
+      <c r="B1764" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1765" s="4" t="s">
+      <c r="A1765" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="B1765" s="0" t="s">
+      <c r="B1765" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1766" s="4" t="s">
+      <c r="A1766" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="B1766" s="0" t="s">
+      <c r="B1766" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1767" s="4" t="s">
+      <c r="A1767" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="B1767" s="0" t="s">
+      <c r="B1767" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1768" s="4" t="s">
+      <c r="A1768" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="B1768" s="0" t="s">
+      <c r="B1768" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1769" s="4" t="s">
+      <c r="A1769" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="B1769" s="0" t="s">
+      <c r="B1769" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1770" s="4" t="s">
+      <c r="A1770" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="B1770" s="0" t="s">
+      <c r="B1770" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1771" s="4" t="s">
+      <c r="A1771" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="B1771" s="0" t="s">
+      <c r="B1771" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1772" s="4" t="s">
+      <c r="A1772" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="B1772" s="0" t="s">
+      <c r="B1772" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1773" s="4" t="s">
+      <c r="A1773" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="B1773" s="0" t="s">
+      <c r="B1773" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1774" s="4" t="s">
+      <c r="A1774" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="B1774" s="0" t="s">
+      <c r="B1774" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1775" s="4" t="s">
+      <c r="A1775" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="B1775" s="0" t="s">
+      <c r="B1775" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1776" s="4" t="s">
+      <c r="A1776" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="B1776" s="0" t="s">
+      <c r="B1776" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1777" s="4" t="s">
+      <c r="A1777" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="B1777" s="0" t="s">
+      <c r="B1777" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1778" s="4" t="s">
+      <c r="A1778" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="B1778" s="0" t="s">
+      <c r="B1778" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1779" s="4" t="s">
+      <c r="A1779" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="B1779" s="0" t="s">
+      <c r="B1779" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1780" s="4" t="s">
+      <c r="A1780" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="B1780" s="0" t="s">
+      <c r="B1780" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="1781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1781" s="4" t="s">
+      <c r="A1781" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="B1781" s="0" t="s">
+      <c r="B1781" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1782" s="4" t="s">
+      <c r="A1782" s="2" t="s">
         <v>1609</v>
       </c>
-      <c r="B1782" s="0" t="s">
+      <c r="B1782" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1783" s="4" t="s">
+      <c r="A1783" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="B1783" s="0" t="s">
+      <c r="B1783" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1784" s="4" t="s">
+      <c r="A1784" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="B1784" s="0" t="s">
+      <c r="B1784" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1785" s="4" t="s">
+      <c r="A1785" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="B1785" s="0" t="s">
+      <c r="B1785" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1786" s="4" t="s">
+      <c r="A1786" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="B1786" s="0" t="s">
+      <c r="B1786" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1787" s="4" t="s">
+      <c r="A1787" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="B1787" s="0" t="s">
+      <c r="B1787" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1788" s="4" t="s">
+      <c r="A1788" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="B1788" s="0" t="s">
+      <c r="B1788" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1789" s="4" t="s">
+      <c r="A1789" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="B1789" s="0" t="s">
+      <c r="B1789" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1790" s="4" t="s">
+      <c r="A1790" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="B1790" s="0" t="s">
+      <c r="B1790" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1791" s="4" t="s">
+      <c r="A1791" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="B1791" s="0" t="s">
+      <c r="B1791" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1792" s="4" t="s">
+      <c r="A1792" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="B1792" s="0" t="s">
+      <c r="B1792" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1793" s="4" t="s">
+      <c r="A1793" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="B1793" s="0" t="s">
+      <c r="B1793" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1794" s="4" t="s">
+      <c r="A1794" s="2" t="s">
         <v>1621</v>
       </c>
-      <c r="B1794" s="0" t="s">
+      <c r="B1794" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1795" s="4" t="s">
+      <c r="A1795" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="B1795" s="0" t="s">
+      <c r="B1795" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1796" s="4" t="s">
+      <c r="A1796" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="B1796" s="0" t="s">
+      <c r="B1796" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1797" s="4" t="s">
+      <c r="A1797" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="B1797" s="0" t="s">
+      <c r="B1797" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1798" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1798" s="4" t="s">
+      <c r="A1798" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="B1798" s="0" t="s">
+      <c r="B1798" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1799" s="4" t="s">
+      <c r="A1799" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="B1799" s="0" t="s">
+      <c r="B1799" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1800" s="4" t="s">
+      <c r="A1800" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="B1800" s="0" t="s">
+      <c r="B1800" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1801" s="4" t="s">
+      <c r="A1801" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="B1801" s="0" t="s">
+      <c r="B1801" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1802" s="4" t="s">
+      <c r="A1802" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="B1802" s="0" t="s">
+      <c r="B1802" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1803" s="4" t="s">
+      <c r="A1803" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="B1803" s="0" t="s">
+      <c r="B1803" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1804" s="4" t="s">
+      <c r="A1804" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="B1804" s="0" t="s">
+      <c r="B1804" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1805" s="4" t="s">
+      <c r="A1805" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="B1805" s="0" t="s">
+      <c r="B1805" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1806" s="4" t="s">
+      <c r="A1806" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B1806" s="0" t="s">
+      <c r="B1806" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1807" s="4" t="s">
+      <c r="A1807" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="B1807" s="0" t="s">
+      <c r="B1807" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1808" s="4" t="s">
+      <c r="A1808" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="B1808" s="0" t="s">
+      <c r="B1808" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1809" s="4" t="s">
+      <c r="A1809" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B1809" s="0" t="s">
+      <c r="B1809" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1810" s="4" t="s">
+      <c r="A1810" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="B1810" s="0" t="s">
+      <c r="B1810" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1811" s="4" t="s">
+      <c r="A1811" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="B1811" s="0" t="s">
+      <c r="B1811" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1812" s="4" t="s">
+      <c r="A1812" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="B1812" s="0" t="s">
+      <c r="B1812" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1813" s="4" t="s">
+      <c r="A1813" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="B1813" s="0" t="s">
+      <c r="B1813" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1814" s="4" t="s">
+      <c r="A1814" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="B1814" s="0" t="s">
+      <c r="B1814" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1815" s="4" t="s">
+      <c r="A1815" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="B1815" s="0" t="s">
+      <c r="B1815" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1816" s="4" t="s">
+      <c r="A1816" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="B1816" s="0" t="s">
+      <c r="B1816" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1817" s="4" t="s">
+      <c r="A1817" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="B1817" s="0" t="s">
+      <c r="B1817" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1818" s="4" t="s">
+      <c r="A1818" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="B1818" s="0" t="s">
+      <c r="B1818" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1819" s="4" t="s">
+      <c r="A1819" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="B1819" s="0" t="s">
+      <c r="B1819" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1820" s="4" t="s">
+      <c r="A1820" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="B1820" s="0" t="s">
+      <c r="B1820" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1821" s="4" t="s">
+      <c r="A1821" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="B1821" s="0" t="s">
+      <c r="B1821" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1822" s="4" t="s">
+      <c r="A1822" s="2" t="s">
         <v>1649</v>
       </c>
-      <c r="B1822" s="0" t="s">
+      <c r="B1822" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1823" s="4" t="s">
+      <c r="A1823" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="B1823" s="0" t="s">
+      <c r="B1823" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1824" s="4" t="s">
+      <c r="A1824" s="2" t="s">
         <v>1651</v>
       </c>
-      <c r="B1824" s="0" t="s">
+      <c r="B1824" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1825" s="4" t="s">
+      <c r="A1825" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="B1825" s="0" t="s">
+      <c r="B1825" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1826" s="4" t="s">
+      <c r="A1826" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="B1826" s="0" t="s">
+      <c r="B1826" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1827" s="4" t="s">
+      <c r="A1827" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="B1827" s="0" t="s">
+      <c r="B1827" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1828" s="4" t="s">
+      <c r="A1828" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="B1828" s="0" t="s">
+      <c r="B1828" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1829" s="4" t="s">
+      <c r="A1829" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="B1829" s="0" t="s">
+      <c r="B1829" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1830" s="4" t="s">
+      <c r="A1830" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="B1830" s="0" t="s">
+      <c r="B1830" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1831" s="4" t="s">
+      <c r="A1831" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="B1831" s="0" t="s">
+      <c r="B1831" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1832" s="4" t="s">
+      <c r="A1832" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="B1832" s="0" t="s">
+      <c r="B1832" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1833" s="4" t="s">
+      <c r="A1833" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="B1833" s="0" t="s">
+      <c r="B1833" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1834" s="4" t="s">
+      <c r="A1834" s="2" t="s">
         <v>1621</v>
       </c>
-      <c r="B1834" s="0" t="s">
+      <c r="B1834" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1835" s="4" t="s">
+      <c r="A1835" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="B1835" s="0" t="s">
+      <c r="B1835" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1836" s="4" t="s">
+      <c r="A1836" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="B1836" s="0" t="s">
+      <c r="B1836" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1837" s="4" t="s">
+      <c r="A1837" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="B1837" s="0" t="s">
+      <c r="B1837" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1838" s="4" t="s">
+      <c r="A1838" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="B1838" s="0" t="s">
+      <c r="B1838" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1839" s="4" t="s">
+      <c r="A1839" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B1839" s="0" t="s">
+      <c r="B1839" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1840" s="4" t="s">
+      <c r="A1840" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="B1840" s="0" t="s">
+      <c r="B1840" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1841" s="4" t="s">
+      <c r="A1841" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="B1841" s="0" t="s">
+      <c r="B1841" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1842" s="4" t="s">
+      <c r="A1842" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="B1842" s="0" t="s">
+      <c r="B1842" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1843" s="4" t="s">
+      <c r="A1843" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="B1843" s="0" t="s">
+      <c r="B1843" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1844" s="4" t="s">
+      <c r="A1844" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="B1844" s="0" t="s">
+      <c r="B1844" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1845" s="4" t="s">
+      <c r="A1845" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="B1845" s="0" t="s">
+      <c r="B1845" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1846" s="4" t="s">
+      <c r="A1846" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="B1846" s="0" t="s">
+      <c r="B1846" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1847" s="4" t="s">
+      <c r="A1847" s="2" t="s">
         <v>1669</v>
       </c>
-      <c r="B1847" s="0" t="s">
+      <c r="B1847" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1848" s="4" t="s">
+      <c r="A1848" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="B1848" s="0" t="s">
+      <c r="B1848" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1849" s="4" t="s">
+      <c r="A1849" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="B1849" s="0" t="s">
+      <c r="B1849" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1850" s="4" t="s">
+      <c r="A1850" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="B1850" s="0" t="s">
+      <c r="B1850" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1851" s="4" t="s">
+      <c r="A1851" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="B1851" s="0" t="s">
+      <c r="B1851" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1852" s="4" t="s">
+      <c r="A1852" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="B1852" s="0" t="s">
+      <c r="B1852" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1853" s="4" t="s">
+      <c r="A1853" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="B1853" s="0" t="s">
+      <c r="B1853" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1854" s="4" t="s">
+      <c r="A1854" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="B1854" s="0" t="s">
+      <c r="B1854" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1855" s="4" t="s">
+      <c r="A1855" s="2" t="s">
         <v>1677</v>
       </c>
-      <c r="B1855" s="0" t="s">
+      <c r="B1855" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1856" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1856" s="4" t="s">
+      <c r="A1856" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="B1856" s="0" t="s">
+      <c r="B1856" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1857" s="4" t="s">
+      <c r="A1857" s="2" t="s">
         <v>1679</v>
       </c>
-      <c r="B1857" s="0" t="s">
+      <c r="B1857" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1858" s="4" t="s">
+      <c r="A1858" s="2" t="s">
         <v>1680</v>
       </c>
-      <c r="B1858" s="0" t="s">
+      <c r="B1858" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1859" s="4" t="s">
+      <c r="A1859" s="2" t="s">
         <v>1681</v>
       </c>
-      <c r="B1859" s="0" t="s">
+      <c r="B1859" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1860" s="4" t="s">
+      <c r="A1860" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="B1860" s="0" t="s">
+      <c r="B1860" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1861" s="4" t="s">
+      <c r="A1861" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="B1861" s="0" t="s">
+      <c r="B1861" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1862" s="4" t="s">
+      <c r="A1862" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="B1862" s="0" t="s">
+      <c r="B1862" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1863" s="4" t="s">
+      <c r="A1863" s="2" t="s">
         <v>1685</v>
       </c>
-      <c r="B1863" s="0" t="s">
+      <c r="B1863" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1864" s="4" t="s">
+      <c r="A1864" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="B1864" s="0" t="s">
+      <c r="B1864" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1865" s="4" t="s">
+      <c r="A1865" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="B1865" s="0" t="s">
+      <c r="B1865" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1866" s="4" t="s">
+      <c r="A1866" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="B1866" s="0" t="s">
+      <c r="B1866" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1867" s="4" t="s">
+      <c r="A1867" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="B1867" s="0" t="s">
+      <c r="B1867" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1868" s="4" t="s">
+      <c r="A1868" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="B1868" s="0" t="s">
+      <c r="B1868" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1869" s="4" t="s">
+      <c r="A1869" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="B1869" s="0" t="s">
+      <c r="B1869" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1870" s="4" t="s">
+      <c r="A1870" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="B1870" s="0" t="s">
+      <c r="B1870" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1871" s="4" t="s">
+      <c r="A1871" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="B1871" s="0" t="s">
+      <c r="B1871" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1872" s="4" t="s">
+      <c r="A1872" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="B1872" s="0" t="s">
+      <c r="B1872" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1873" s="4" t="s">
+      <c r="A1873" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B1873" s="0" t="s">
+      <c r="B1873" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1874" s="4" t="s">
+      <c r="A1874" s="2" t="s">
         <v>1695</v>
       </c>
-      <c r="B1874" s="0" t="s">
+      <c r="B1874" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1875" s="4" t="s">
+      <c r="A1875" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B1875" s="0" t="s">
+      <c r="B1875" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1876" s="4" t="s">
+      <c r="A1876" s="2" t="s">
         <v>1696</v>
       </c>
-      <c r="B1876" s="0" t="s">
+      <c r="B1876" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1877" s="4" t="s">
+      <c r="A1877" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="B1877" s="0" t="s">
+      <c r="B1877" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1878" s="4" t="s">
+      <c r="A1878" s="2" t="s">
         <v>1698</v>
       </c>
-      <c r="B1878" s="0" t="s">
+      <c r="B1878" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1879" s="4" t="s">
+      <c r="A1879" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="B1879" s="0" t="s">
+      <c r="B1879" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1880" s="4" t="s">
+      <c r="A1880" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="B1880" s="0" t="s">
+      <c r="B1880" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1881" s="4" t="s">
+      <c r="A1881" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="B1881" s="0" t="s">
+      <c r="B1881" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1882" s="4" t="s">
+      <c r="A1882" s="2" t="s">
         <v>1701</v>
       </c>
-      <c r="B1882" s="0" t="s">
+      <c r="B1882" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1883" s="4" t="s">
+      <c r="A1883" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="B1883" s="0" t="s">
+      <c r="B1883" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1884" s="4" t="s">
+      <c r="A1884" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="B1884" s="0" t="s">
+      <c r="B1884" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1885" s="4" t="s">
+      <c r="A1885" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="B1885" s="0" t="s">
+      <c r="B1885" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1886" s="4" t="s">
+      <c r="A1886" s="2" t="s">
         <v>1703</v>
       </c>
-      <c r="B1886" s="0" t="s">
+      <c r="B1886" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1887" s="4" t="s">
+      <c r="A1887" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="B1887" s="0" t="s">
+      <c r="B1887" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1888" s="4" t="s">
+      <c r="A1888" s="2" t="s">
         <v>1705</v>
       </c>
-      <c r="B1888" s="0" t="s">
+      <c r="B1888" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1889" s="4" t="s">
+      <c r="A1889" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="B1889" s="0" t="s">
+      <c r="B1889" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1890" s="4" t="s">
+      <c r="A1890" s="2" t="s">
         <v>1707</v>
       </c>
-      <c r="B1890" s="0" t="s">
+      <c r="B1890" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1891" s="4" t="s">
+      <c r="A1891" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="B1891" s="0" t="s">
+      <c r="B1891" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1892" s="4" t="s">
+      <c r="A1892" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="B1892" s="0" t="s">
+      <c r="B1892" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1893" s="4" t="s">
+      <c r="A1893" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="B1893" s="0" t="s">
+      <c r="B1893" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1894" s="4" t="s">
+      <c r="A1894" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="B1894" s="0" t="s">
+      <c r="B1894" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1895" s="4" t="s">
+      <c r="A1895" s="2" t="s">
         <v>1712</v>
       </c>
-      <c r="B1895" s="0" t="s">
+      <c r="B1895" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1896" s="4" t="s">
+      <c r="A1896" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="B1896" s="0" t="s">
+      <c r="B1896" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1897" s="4" t="s">
+      <c r="A1897" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="B1897" s="0" t="s">
+      <c r="B1897" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1898" s="4" t="s">
+      <c r="A1898" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="B1898" s="0" t="s">
+      <c r="B1898" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1899" s="4" t="s">
+      <c r="A1899" s="2" t="s">
         <v>1716</v>
       </c>
-      <c r="B1899" s="0" t="s">
+      <c r="B1899" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1900" s="4" t="s">
+      <c r="A1900" s="2" t="s">
         <v>1717</v>
       </c>
-      <c r="B1900" s="0" t="s">
+      <c r="B1900" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1901" s="4" t="s">
+      <c r="A1901" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="B1901" s="0" t="s">
+      <c r="B1901" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1902" s="4" t="s">
+      <c r="A1902" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="B1902" s="0" t="s">
+      <c r="B1902" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1903" s="4" t="s">
+      <c r="A1903" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="B1903" s="0" t="s">
+      <c r="B1903" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1904" s="4" t="s">
+      <c r="A1904" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="B1904" s="0" t="s">
+      <c r="B1904" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1905" s="4" t="s">
+      <c r="A1905" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="B1905" s="0" t="s">
+      <c r="B1905" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1906" s="4" t="s">
+      <c r="A1906" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="B1906" s="0" t="s">
+      <c r="B1906" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1907" s="4" t="s">
+      <c r="A1907" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="B1907" s="0" t="s">
+      <c r="B1907" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1908" s="4" t="s">
+      <c r="A1908" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="B1908" s="0" t="s">
+      <c r="B1908" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1909" s="4" t="s">
+      <c r="A1909" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="B1909" s="0" t="s">
+      <c r="B1909" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1910" s="4" t="s">
+      <c r="A1910" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="B1910" s="0" t="s">
+      <c r="B1910" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1911" s="4" t="s">
+      <c r="A1911" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="B1911" s="0" t="s">
+      <c r="B1911" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1912" s="4" t="s">
+      <c r="A1912" s="2" t="s">
         <v>1705</v>
       </c>
-      <c r="B1912" s="0" t="s">
+      <c r="B1912" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1913" s="4" t="s">
+      <c r="A1913" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="B1913" s="0" t="s">
+      <c r="B1913" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1914" s="4" t="s">
+      <c r="A1914" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="B1914" s="0" t="s">
+      <c r="B1914" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1915" s="4" t="s">
+      <c r="A1915" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="B1915" s="0" t="s">
+      <c r="B1915" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1916" s="4" t="s">
+      <c r="A1916" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="B1916" s="0" t="s">
+      <c r="B1916" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1917" s="4" t="s">
+      <c r="A1917" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="B1917" s="0" t="s">
+      <c r="B1917" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1918" s="4" t="s">
+      <c r="A1918" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="B1918" s="0" t="s">
+      <c r="B1918" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1919" s="4" t="s">
+      <c r="A1919" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B1919" s="0" t="s">
+      <c r="B1919" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1920" s="4" t="s">
+      <c r="A1920" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="B1920" s="0" t="s">
+      <c r="B1920" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1921" s="4" t="s">
+      <c r="A1921" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="B1921" s="0" t="s">
+      <c r="B1921" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1922" s="4" t="s">
+      <c r="A1922" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="B1922" s="0" t="s">
+      <c r="B1922" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1923" s="4" t="s">
+      <c r="A1923" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="B1923" s="0" t="s">
+      <c r="B1923" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1924" s="4" t="s">
+      <c r="A1924" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="B1924" s="0" t="s">
+      <c r="B1924" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1925" s="4" t="s">
+      <c r="A1925" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="B1925" s="0" t="s">
+      <c r="B1925" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1926" s="4" t="s">
+      <c r="A1926" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="B1926" s="0" t="s">
+      <c r="B1926" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1927" s="4" t="s">
+      <c r="A1927" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="B1927" s="0" t="s">
+      <c r="B1927" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1928" s="4" t="s">
+      <c r="A1928" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="B1928" s="0" t="s">
+      <c r="B1928" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1929" s="4" t="s">
+      <c r="A1929" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="B1929" s="0" t="s">
+      <c r="B1929" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1930" s="4" t="s">
+      <c r="A1930" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="B1930" s="0" t="s">
+      <c r="B1930" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1931" s="4" t="s">
+      <c r="A1931" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="B1931" s="0" t="s">
+      <c r="B1931" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1932" s="4" t="s">
+      <c r="A1932" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="B1932" s="0" t="s">
+      <c r="B1932" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1933" s="4" t="s">
+      <c r="A1933" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="B1933" s="0" t="s">
+      <c r="B1933" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1934" s="4" t="s">
+      <c r="A1934" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="B1934" s="0" t="s">
+      <c r="B1934" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1935" s="4" t="s">
+      <c r="A1935" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="B1935" s="0" t="s">
+      <c r="B1935" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1936" s="4" t="s">
+      <c r="A1936" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="B1936" s="0" t="s">
+      <c r="B1936" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1937" s="4" t="s">
+      <c r="A1937" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="B1937" s="0" t="s">
+      <c r="B1937" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1938" s="4" t="s">
+      <c r="A1938" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="B1938" s="0" t="s">
+      <c r="B1938" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1939" s="4" t="s">
+      <c r="A1939" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="B1939" s="0" t="s">
+      <c r="B1939" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1940" s="4" t="s">
+      <c r="A1940" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="B1940" s="0" t="s">
+      <c r="B1940" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1941" s="4" t="s">
+      <c r="A1941" s="2" t="s">
         <v>1744</v>
       </c>
-      <c r="B1941" s="0" t="s">
+      <c r="B1941" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1942" s="4" t="s">
+      <c r="A1942" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="B1942" s="0" t="s">
+      <c r="B1942" s="1" t="s">
         <v>1608</v>
+      </c>
+    </row>
+    <row r="1943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1943" s="4" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1943" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1944" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1944" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1945" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1945" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1946" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1946" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1947" s="4" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1947" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1948" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1948" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1949" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1949" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1950" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1950" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1951" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1951" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1952" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1952" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1953" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1953" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1954" s="4" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1954" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1955" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1955" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1956" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1956" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1957" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1957" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1958" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1958" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1959" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1959" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1960" s="4" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1960" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1961" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1961" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1962" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1962" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1963" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1963" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1964" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1964" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1965" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1965" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1966" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1966" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1967" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1967" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1968" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1968" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1969" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1969" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1970" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1970" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1971" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1971" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1972" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1972" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1973" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1973" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1974" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1974" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1975" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1975" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1976" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1976" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1977" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1977" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1978" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1978" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1979" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1979" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1980" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1980" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1981" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1981" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1982" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1982" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1983" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1983" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1984" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1984" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1985" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1985" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1986" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1986" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1987" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1987" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1988" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1988" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1989" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1989" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1990" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1990" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1991" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1991" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1992" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1992" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1993" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1993" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1994" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1994" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1995" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1995" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1996" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1996" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1997" s="4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1997" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1998" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1998" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1999" s="4" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1999" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2000" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B2000" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2001" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B2001" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2002" s="4" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B2002" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2003" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B2003" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2004" s="4" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B2004" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2005" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B2005" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2006" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B2006" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2007" s="4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B2007" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2008" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B2008" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2009" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B2009" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2010" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B2010" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2011" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B2011" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2012" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B2012" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2013" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B2013" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2014" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B2014" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2015" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B2015" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2016" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B2016" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2017" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B2017" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2018" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B2018" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2019" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B2019" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2020" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B2020" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2021" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B2021" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2022" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2022" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2023" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B2023" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2024" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B2024" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2025" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B2025" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2026" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B2026" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2027" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B2027" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2028" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B2028" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2029" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2029" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2030" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B2030" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2031" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B2031" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2032" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B2032" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2033" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B2033" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2034" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B2034" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2035" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B2035" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2036" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B2036" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2037" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B2037" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2038" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B2038" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2039" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2039" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2040" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B2040" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2041" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B2041" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2042" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B2042" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2043" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B2043" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2044" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B2044" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2045" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B2045" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2046" s="4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B2046" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2047" s="4" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B2047" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2048" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B2048" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2049" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B2049" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2050" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B2050" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2051" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B2051" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2052" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B2052" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2053" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B2053" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2054" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B2054" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2055" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B2055" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2056" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B2056" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2057" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B2057" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2058" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B2058" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2059" s="4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B2059" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2060" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B2060" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2061" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B2061" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2062" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B2062" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2063" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B2063" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2064" s="4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B2064" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2065" s="4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B2065" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2066" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B2066" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2067" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B2067" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2068" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B2068" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2069" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B2069" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2070" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B2070" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2071" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B2071" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2072" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2072" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B2072" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2073" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B2073" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2074" s="4" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B2074" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2075" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B2075" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2076" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2076" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B2076" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2077" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B2077" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2078" s="4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B2078" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2079" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2079" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2080" s="4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B2080" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2081" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B2081" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2082" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2082" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B2082" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2083" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B2083" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2084" s="4" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B2084" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2085" s="4" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B2085" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2086" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B2086" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2087" s="4" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B2087" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2088" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2088" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B2088" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2089" s="4" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B2089" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2090" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2090" s="4" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B2090" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2091" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B2091" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2092" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B2092" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2093" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2093" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B2093" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2094" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2094" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B2094" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2095" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B2095" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2096" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2096" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B2096" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2097" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B2097" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2098" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B2098" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2099" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2099" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B2099" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2100" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B2100" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2101" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B2101" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2102" s="4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2102" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2103" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B2103" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2104" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B2104" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2105" s="4" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B2105" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2106" s="4" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B2106" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2107" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B2107" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2108" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B2108" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2109" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B2109" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2110" s="4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B2110" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2111" s="4" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B2111" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2112" s="4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B2112" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2113" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B2113" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2114" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B2114" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2115" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2115" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2116" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B2116" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2117" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B2117" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2118" s="4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B2118" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2119" s="4" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B2119" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2120" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B2120" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2121" s="4" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B2121" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2122" s="4" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2122" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2123" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B2123" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2124" s="4" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B2124" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2125" s="4" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B2125" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2126" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B2126" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2127" s="4" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B2127" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2128" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B2128" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2129" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B2129" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2130" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B2130" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2131" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B2131" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2132" s="4" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B2132" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2133" s="4" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2133" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2134" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B2134" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2135" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B2135" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2136" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B2136" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2137" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B2137" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2138" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B2138" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2139" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B2139" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2140" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B2140" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2141" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B2141" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2142" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B2142" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2143" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B2143" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2144" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B2144" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2145" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B2145" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2146" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B2146" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2147" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B2147" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2148" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B2148" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2149" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B2149" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2150" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B2150" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2151" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2151" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2152" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B2152" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2153" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B2153" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2154" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B2154" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2155" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B2155" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2156" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B2156" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2157" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B2157" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2158" s="4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B2158" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2159" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B2159" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2160" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B2160" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2161" s="4" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B2161" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2162" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B2162" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2163" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B2163" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2164" s="4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B2164" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2165" s="4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B2165" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2166" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B2166" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2167" s="4" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B2167" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2168" s="4" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B2168" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2169" s="4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B2169" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2170" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B2170" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2171" s="4" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B2171" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2172" s="4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B2172" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2173" s="4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B2173" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2174" s="4" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B2174" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2175" s="4" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B2175" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2176" s="4" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B2176" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2177" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B2177" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2178" s="4" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2178" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2179" s="4" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B2179" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2180" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B2180" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2181" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B2181" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2182" s="4" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B2182" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2183" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B2183" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2184" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B2184" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2185" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B2185" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2186" s="4" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B2186" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2187" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B2187" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2188" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B2188" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2189" s="4" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B2189" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2190" s="4" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B2190" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2191" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B2191" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2192" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B2192" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2193" s="4" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B2193" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2194" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B2194" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2195" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B2195" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2196" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B2196" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2197" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B2197" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2198" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B2198" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2199" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B2199" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2200" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B2200" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2201" s="4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B2201" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2202" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B2202" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2203" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2203" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2204" s="4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B2204" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2205" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B2205" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2206" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B2206" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2207" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B2207" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2208" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B2208" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2209" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B2209" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2210" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B2210" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2211" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B2211" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2212" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B2212" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2213" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B2213" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2214" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B2214" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2215" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2215" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2216" s="4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B2216" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2217" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B2217" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2218" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2218" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B2218" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2219" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B2219" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2220" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2220" s="4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B2220" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2221" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2221" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B2221" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2222" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B2222" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2223" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2223" s="4" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B2223" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2224" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2224" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2225" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B2225" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2226" s="4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B2226" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2227" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B2227" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2228" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B2228" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2229" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B2229" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2230" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2230" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2231" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B2231" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2232" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B2232" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2233" s="4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B2233" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2234" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B2234" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2235" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2235" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B2235" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2236" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B2236" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2237" s="4" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B2237" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2238" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2238" s="4" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B2238" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2239" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B2239" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2240" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B2240" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2241" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B2241" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2242" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B2242" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2243" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B2243" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2244" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B2244" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2245" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B2245" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2246" s="4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B2246" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2247" s="4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B2247" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2248" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B2248" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2249" s="4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B2249" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2250" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B2250" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2251" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B2251" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2252" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B2252" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2253" s="4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B2253" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2254" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B2254" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2255" s="4" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B2255" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2256" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B2256" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2257" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B2257" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2258" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B2258" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2259" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B2259" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2260" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B2260" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2261" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B2261" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2262" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B2262" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2263" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B2263" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2264" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B2264" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2265" s="4" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B2265" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2266" s="4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B2266" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2267" s="4" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B2267" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2268" s="4" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B2268" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2269" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B2269" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2270" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B2270" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2271" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B2271" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2272" s="4" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B2272" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2273" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B2273" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2274" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B2274" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2275" s="4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B2275" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2276" s="4" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B2276" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2277" s="4" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B2277" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2278" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B2278" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2279" s="4" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B2279" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2280" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B2280" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2281" s="4" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B2281" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2282" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B2282" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2283" s="4" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B2283" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2284" s="4" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2284" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2285" s="4" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B2285" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2286" s="4" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B2286" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2287" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B2287" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2288" s="4" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B2288" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2289" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B2289" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2290" s="4" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B2290" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2291" s="4" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B2291" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2292" s="4" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B2292" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2293" s="4" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B2293" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2294" s="4" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B2294" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2295" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B2295" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2296" s="4" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B2296" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2297" s="4" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B2297" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2298" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B2298" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2299" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B2299" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2300" s="4" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2300" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2301" s="4" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B2301" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2302" s="4" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B2302" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2303" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B2303" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2304" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B2304" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2305" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B2305" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2306" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B2306" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2307" s="4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B2307" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2308" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B2308" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2309" s="4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B2309" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2310" s="4" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B2310" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2311" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B2311" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2312" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B2312" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2313" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B2313" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2314" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B2314" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2315" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B2315" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2316" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B2316" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2317" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B2317" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2318" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B2318" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2319" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B2319" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2320" s="4" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B2320" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2321" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B2321" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2322" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B2322" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2323" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B2323" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2324" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B2324" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2325" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B2325" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2326" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B2326" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2327" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B2327" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2328" s="4" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B2328" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2329" s="4" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B2329" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2330" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B2330" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2331" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B2331" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2332" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B2332" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2333" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B2333" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2334" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B2334" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2335" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B2335" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2336" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B2336" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2337" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B2337" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2338" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B2338" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2339" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B2339" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2340" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2340" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B2340" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2341" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B2341" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2342" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B2342" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2343" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B2343" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2344" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B2344" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2345" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B2345" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2346" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B2346" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2347" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B2347" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2348" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2348" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B2348" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2349" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B2349" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2350" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B2350" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2351" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B2351" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2352" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B2352" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2353" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B2353" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2354" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B2354" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2355" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B2355" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2356" s="4" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B2356" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2357" s="4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B2357" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2358" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B2358" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2359" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B2359" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2360" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2360" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B2360" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2361" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B2361" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2362" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B2362" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2363" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B2363" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2364" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B2364" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2365" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B2365" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2366" s="4" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B2366" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2367" s="4" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B2367" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2368" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B2368" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2369" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B2369" s="5" t="s">
+        <v>2067</v>
       </c>
     </row>
   </sheetData>
